--- a/analysis/metadata/P13_1/P13_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P13_1/P13_1_minimal_metadata.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>01/11/2019 00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>01/11/2019 00:00</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>01/11/2019 00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>01/11/2019 00:00</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2019-10-28</t>
+          <t>25/01/2022 09:07</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2019-10-28</t>
+          <t>25/01/2022 09:07</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -707,7 +707,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2019-11-04</t>
+          <t>04/11/2019 00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -732,7 +732,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2019-11-04</t>
+          <t>04/11/2019 00:00</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2019-11-14</t>
+          <t>14/11/2019 00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2019-11-14</t>
+          <t>14/11/2019 00:00</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2019-11-14</t>
+          <t>14/11/2019 00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2019-11-14</t>
+          <t>14/11/2019 00:00</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2019-10-21</t>
+          <t>21/10/2019 00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2019-10-21</t>
+          <t>21/10/2019 00:00</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2019-10-21</t>
+          <t>21/10/2019 00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2019-10-21</t>
+          <t>21/10/2019 00:00</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>06/11/2019 00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>06/11/2019 00:00</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>06/11/2019 00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>06/11/2019 00:00</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2019-10-16</t>
+          <t>16/10/2019 00:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2019-10-16</t>
+          <t>16/10/2019 00:00</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2019-10-29</t>
+          <t>25/01/2022 09:07</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2019-10-29</t>
+          <t>25/01/2022 09:07</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>07/11/2019 00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>07/11/2019 00:00</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2019-11-14</t>
+          <t>14/11/2019 00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2019-11-14</t>
+          <t>14/11/2019 00:00</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2019-10-20</t>
+          <t>20/10/2019 00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2019-10-20</t>
+          <t>20/10/2019 00:00</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>19/11/2019 00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>19/11/2019 00:00</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2019-11-14</t>
+          <t>14/11/2019 00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1746,7 +1746,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2019-11-14</t>
+          <t>14/11/2019 00:00</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1799,7 +1799,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>05/11/2019 00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>05/11/2019 00:00</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1877,7 +1877,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>15/11/2019 00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1902,7 +1902,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>15/11/2019 00:00</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2019-11-13</t>
+          <t>13/11/2019 00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1980,7 +1980,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2019-11-13</t>
+          <t>13/11/2019 00:00</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -2033,7 +2033,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>06/11/2019 00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>06/11/2019 00:00</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2111,7 +2111,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2019-10-17</t>
+          <t>17/10/2019 00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2136,7 +2136,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2019-10-17</t>
+          <t>17/10/2019 00:00</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2189,7 +2189,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2019-11-12</t>
+          <t>12/11/2019 00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2019-11-12</t>
+          <t>12/11/2019 00:00</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>05/11/2019 00:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2292,7 +2292,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>05/11/2019 00:00</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2345,7 +2345,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2019-11-11</t>
+          <t>11/11/2019 00:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2019-11-11</t>
+          <t>11/11/2019 00:00</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2423,7 +2423,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>07/11/2019 00:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2448,7 +2448,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>07/11/2019 00:00</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2019-09-16</t>
+          <t>16/09/2019 00:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2526,7 +2526,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2019-09-16</t>
+          <t>16/09/2019 00:00</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2019-10-09</t>
+          <t>09/10/2019 00:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2604,7 +2604,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2019-10-09</t>
+          <t>09/10/2019 00:00</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2657,7 +2657,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2019-10-23</t>
+          <t>23/10/2019 00:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2682,7 +2682,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2019-10-23</t>
+          <t>23/10/2019 00:00</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2735,7 +2735,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2019-11-25</t>
+          <t>25/01/2022 09:07</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2760,7 +2760,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2019-11-25</t>
+          <t>25/01/2022 09:07</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2019-11-04</t>
+          <t>04/11/2019 00:00</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2838,7 +2838,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2019-11-04</t>
+          <t>04/11/2019 00:00</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2891,7 +2891,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>01/11/2019 00:00</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>01/11/2019 00:00</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2019-11-11</t>
+          <t>11/11/2019 00:00</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2994,7 +2994,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2019-11-11</t>
+          <t>11/11/2019 00:00</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -3047,7 +3047,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2019-11-09</t>
+          <t>09/11/2019 00:00</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -3072,7 +3072,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2019-11-09</t>
+          <t>09/11/2019 00:00</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2019-11-12</t>
+          <t>12/11/2019 00:00</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -3150,7 +3150,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2019-11-12</t>
+          <t>12/11/2019 00:00</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -3203,7 +3203,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2019-10-23</t>
+          <t>23/10/2019 00:00</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3228,7 +3228,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2019-10-23</t>
+          <t>23/10/2019 00:00</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2019-11-11</t>
+          <t>11/11/2019 00:00</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2019-11-11</t>
+          <t>11/11/2019 00:00</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2019-10-29</t>
+          <t>25/01/2022 09:07</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3384,7 +3384,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2019-10-29</t>
+          <t>25/01/2022 09:07</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3437,7 +3437,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2019-10-17</t>
+          <t>17/10/2019 00:00</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3462,7 +3462,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2019-10-17</t>
+          <t>17/10/2019 00:00</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3515,7 +3515,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>07/11/2019 00:00</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3540,7 +3540,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>07/11/2019 00:00</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3593,7 +3593,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2019-11-11</t>
+          <t>11/11/2019 00:00</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3618,7 +3618,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2019-11-11</t>
+          <t>11/11/2019 00:00</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -3671,7 +3671,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2020-11-01</t>
+          <t>01/11/2020 00:00</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3696,7 +3696,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2020-11-01</t>
+          <t>01/11/2020 00:00</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -3749,7 +3749,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2019-10-30</t>
+          <t>25/01/2022 09:07</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3774,7 +3774,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2019-10-30</t>
+          <t>25/01/2022 09:07</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -3827,7 +3827,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2019-10-31</t>
+          <t>25/01/2022 09:07</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2019-10-31</t>
+          <t>25/01/2022 09:07</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3905,7 +3905,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2019-10-09</t>
+          <t>09/10/2019 00:00</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3930,7 +3930,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2019-10-09</t>
+          <t>09/10/2019 00:00</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3983,7 +3983,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2019-11-13</t>
+          <t>13/11/2019 00:00</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -4008,7 +4008,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2019-11-13</t>
+          <t>13/11/2019 00:00</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -4061,7 +4061,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>06/11/2019 00:00</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -4086,7 +4086,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>06/11/2019 00:00</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -4139,7 +4139,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2019-10-17</t>
+          <t>17/10/2019 00:00</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2019-10-17</t>
+          <t>17/10/2019 00:00</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -4217,7 +4217,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2019-11-04</t>
+          <t>04/11/2019 00:00</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -4242,7 +4242,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2019-11-04</t>
+          <t>04/11/2019 00:00</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -4295,7 +4295,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2019-11-25</t>
+          <t>25/01/2022 09:07</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4320,7 +4320,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2019-11-25</t>
+          <t>25/01/2022 09:07</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -4373,7 +4373,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>25/01/2022 09:07</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4398,7 +4398,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>25/01/2022 09:07</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -4451,7 +4451,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2019-10-23</t>
+          <t>23/10/2019 00:00</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4476,7 +4476,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2019-10-23</t>
+          <t>23/10/2019 00:00</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -4529,7 +4529,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2019-10-23</t>
+          <t>23/10/2019 00:00</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4554,7 +4554,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>2019-10-23</t>
+          <t>23/10/2019 00:00</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -4607,7 +4607,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>07/11/2019 00:00</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4632,7 +4632,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>07/11/2019 00:00</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -4685,7 +4685,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2020-10-31</t>
+          <t>25/01/2022 09:07</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4710,7 +4710,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2020-10-31</t>
+          <t>25/01/2022 09:07</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -4763,7 +4763,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2019-10-31</t>
+          <t>25/01/2022 09:07</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4788,7 +4788,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2019-10-31</t>
+          <t>25/01/2022 09:07</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -4841,7 +4841,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2019-11-25</t>
+          <t>25/01/2022 09:07</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4866,7 +4866,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>2019-11-25</t>
+          <t>25/01/2022 09:07</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -4919,7 +4919,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2019-11-11</t>
+          <t>11/11/2019 00:00</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4944,7 +4944,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2019-11-11</t>
+          <t>11/11/2019 00:00</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -4997,7 +4997,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>07/11/2019 00:00</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -5022,7 +5022,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>07/11/2019 00:00</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -5075,7 +5075,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2019-11-13</t>
+          <t>13/11/2019 00:00</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -5100,7 +5100,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2019-11-13</t>
+          <t>13/11/2019 00:00</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -5153,7 +5153,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2019-11-11</t>
+          <t>11/11/2019 00:00</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -5178,7 +5178,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2019-11-11</t>
+          <t>11/11/2019 00:00</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -5231,7 +5231,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2019-11-04</t>
+          <t>04/11/2019 00:00</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -5256,7 +5256,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>2019-11-04</t>
+          <t>04/11/2019 00:00</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -5309,7 +5309,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2019-11-13</t>
+          <t>13/11/2019 00:00</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -5334,7 +5334,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>2019-11-13</t>
+          <t>13/11/2019 00:00</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -5387,7 +5387,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2019-11-12</t>
+          <t>12/11/2019 00:00</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>2019-11-12</t>
+          <t>12/11/2019 00:00</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -5465,7 +5465,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2019-11-18</t>
+          <t>18/11/2019 00:00</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5490,7 +5490,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>2019-11-18</t>
+          <t>18/11/2019 00:00</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -5543,7 +5543,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2020-01-07</t>
+          <t>07/01/2020 00:00</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5568,7 +5568,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>2020-01-07</t>
+          <t>07/01/2020 00:00</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -5621,7 +5621,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2019-11-25</t>
+          <t>25/01/2022 09:07</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5646,7 +5646,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>2019-11-25</t>
+          <t>25/01/2022 09:07</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -5699,7 +5699,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2019-10-28</t>
+          <t>25/01/2022 09:07</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5724,7 +5724,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>2019-10-28</t>
+          <t>25/01/2022 09:07</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">

--- a/analysis/metadata/P13_1/P13_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P13_1/P13_1_minimal_metadata.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>01/11/2019 00:00</t>
+          <t>2019-11-01</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>01/11/2019 00:00</t>
+          <t>2019-11-01</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>01/11/2019 00:00</t>
+          <t>2019-11-01</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>01/11/2019 00:00</t>
+          <t>2019-11-01</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>25/01/2022 09:07</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>25/01/2022 09:07</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -707,7 +707,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>04/11/2019 00:00</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -732,7 +732,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>04/11/2019 00:00</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>14/11/2019 00:00</t>
+          <t>2019-11-14</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>14/11/2019 00:00</t>
+          <t>2019-11-14</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>14/11/2019 00:00</t>
+          <t>2019-11-14</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>14/11/2019 00:00</t>
+          <t>2019-11-14</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>21/10/2019 00:00</t>
+          <t>2019-10-21</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>21/10/2019 00:00</t>
+          <t>2019-10-21</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>21/10/2019 00:00</t>
+          <t>2019-10-21</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>21/10/2019 00:00</t>
+          <t>2019-10-21</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>06/11/2019 00:00</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>06/11/2019 00:00</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>06/11/2019 00:00</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>06/11/2019 00:00</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>16/10/2019 00:00</t>
+          <t>2019-10-16</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>16/10/2019 00:00</t>
+          <t>2019-10-16</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>25/01/2022 09:07</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>25/01/2022 09:07</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>07/11/2019 00:00</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>07/11/2019 00:00</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>14/11/2019 00:00</t>
+          <t>2019-11-14</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>14/11/2019 00:00</t>
+          <t>2019-11-14</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>20/10/2019 00:00</t>
+          <t>2019-10-20</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>20/10/2019 00:00</t>
+          <t>2019-10-20</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>19/11/2019 00:00</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>19/11/2019 00:00</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>14/11/2019 00:00</t>
+          <t>2019-11-14</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1746,7 +1746,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>14/11/2019 00:00</t>
+          <t>2019-11-14</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1799,7 +1799,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>05/11/2019 00:00</t>
+          <t>2019-11-05</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>05/11/2019 00:00</t>
+          <t>2019-11-05</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1877,7 +1877,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>15/11/2019 00:00</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1902,7 +1902,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>15/11/2019 00:00</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>13/11/2019 00:00</t>
+          <t>2019-11-13</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1980,7 +1980,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>13/11/2019 00:00</t>
+          <t>2019-11-13</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -2033,7 +2033,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>06/11/2019 00:00</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>06/11/2019 00:00</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2111,7 +2111,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>17/10/2019 00:00</t>
+          <t>2019-10-17</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2136,7 +2136,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>17/10/2019 00:00</t>
+          <t>2019-10-17</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2189,7 +2189,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>12/11/2019 00:00</t>
+          <t>2019-11-12</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>12/11/2019 00:00</t>
+          <t>2019-11-12</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>05/11/2019 00:00</t>
+          <t>2019-11-05</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2292,7 +2292,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>05/11/2019 00:00</t>
+          <t>2019-11-05</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2345,7 +2345,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>11/11/2019 00:00</t>
+          <t>2019-11-11</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>11/11/2019 00:00</t>
+          <t>2019-11-11</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2423,7 +2423,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>07/11/2019 00:00</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2448,7 +2448,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>07/11/2019 00:00</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>16/09/2019 00:00</t>
+          <t>2019-09-16</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2526,7 +2526,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>16/09/2019 00:00</t>
+          <t>2019-09-16</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>09/10/2019 00:00</t>
+          <t>2019-10-09</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2604,7 +2604,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>09/10/2019 00:00</t>
+          <t>2019-10-09</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2657,7 +2657,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>23/10/2019 00:00</t>
+          <t>2019-10-23</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2682,7 +2682,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>23/10/2019 00:00</t>
+          <t>2019-10-23</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2735,7 +2735,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>25/01/2022 09:07</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2760,7 +2760,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>25/01/2022 09:07</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>04/11/2019 00:00</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2838,7 +2838,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>04/11/2019 00:00</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2891,7 +2891,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>01/11/2019 00:00</t>
+          <t>2019-11-01</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>01/11/2019 00:00</t>
+          <t>2019-11-01</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>11/11/2019 00:00</t>
+          <t>2019-11-11</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2994,7 +2994,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>11/11/2019 00:00</t>
+          <t>2019-11-11</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -3047,7 +3047,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>09/11/2019 00:00</t>
+          <t>2019-11-09</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -3072,7 +3072,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>09/11/2019 00:00</t>
+          <t>2019-11-09</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>12/11/2019 00:00</t>
+          <t>2019-11-12</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -3150,7 +3150,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>12/11/2019 00:00</t>
+          <t>2019-11-12</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -3203,7 +3203,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>23/10/2019 00:00</t>
+          <t>2019-10-23</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3228,7 +3228,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>23/10/2019 00:00</t>
+          <t>2019-10-23</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>11/11/2019 00:00</t>
+          <t>2019-11-11</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>11/11/2019 00:00</t>
+          <t>2019-11-11</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>25/01/2022 09:07</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3384,7 +3384,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>25/01/2022 09:07</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3437,7 +3437,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>17/10/2019 00:00</t>
+          <t>2019-10-17</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3462,7 +3462,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>17/10/2019 00:00</t>
+          <t>2019-10-17</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3515,7 +3515,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>07/11/2019 00:00</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3540,7 +3540,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>07/11/2019 00:00</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3593,7 +3593,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>11/11/2019 00:00</t>
+          <t>2019-11-11</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3618,7 +3618,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>11/11/2019 00:00</t>
+          <t>2019-11-11</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -3671,7 +3671,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>01/11/2020 00:00</t>
+          <t>2020-11-01</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3696,7 +3696,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>01/11/2020 00:00</t>
+          <t>2020-11-01</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -3749,7 +3749,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>25/01/2022 09:07</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3774,7 +3774,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>25/01/2022 09:07</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -3827,7 +3827,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>25/01/2022 09:07</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>25/01/2022 09:07</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3905,7 +3905,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>09/10/2019 00:00</t>
+          <t>2019-10-09</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3930,7 +3930,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>09/10/2019 00:00</t>
+          <t>2019-10-09</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3983,7 +3983,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>13/11/2019 00:00</t>
+          <t>2019-11-13</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -4008,7 +4008,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>13/11/2019 00:00</t>
+          <t>2019-11-13</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -4061,7 +4061,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>06/11/2019 00:00</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -4086,7 +4086,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>06/11/2019 00:00</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -4139,7 +4139,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>17/10/2019 00:00</t>
+          <t>2019-10-17</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>17/10/2019 00:00</t>
+          <t>2019-10-17</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -4217,7 +4217,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>04/11/2019 00:00</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -4242,7 +4242,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>04/11/2019 00:00</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -4295,7 +4295,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>25/01/2022 09:07</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4320,7 +4320,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>25/01/2022 09:07</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -4373,7 +4373,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>25/01/2022 09:07</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4398,7 +4398,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>25/01/2022 09:07</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -4451,7 +4451,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>23/10/2019 00:00</t>
+          <t>2019-10-23</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4476,7 +4476,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>23/10/2019 00:00</t>
+          <t>2019-10-23</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -4529,7 +4529,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>23/10/2019 00:00</t>
+          <t>2019-10-23</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4554,7 +4554,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>23/10/2019 00:00</t>
+          <t>2019-10-23</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -4607,7 +4607,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>07/11/2019 00:00</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4632,7 +4632,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>07/11/2019 00:00</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -4685,7 +4685,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>25/01/2022 09:07</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4710,7 +4710,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>25/01/2022 09:07</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -4763,7 +4763,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>25/01/2022 09:07</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4788,7 +4788,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>25/01/2022 09:07</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -4841,7 +4841,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>25/01/2022 09:07</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4866,7 +4866,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>25/01/2022 09:07</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -4919,7 +4919,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>11/11/2019 00:00</t>
+          <t>2019-11-11</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4944,7 +4944,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>11/11/2019 00:00</t>
+          <t>2019-11-11</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -4997,7 +4997,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>07/11/2019 00:00</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -5022,7 +5022,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>07/11/2019 00:00</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -5075,7 +5075,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>13/11/2019 00:00</t>
+          <t>2019-11-13</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -5100,7 +5100,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>13/11/2019 00:00</t>
+          <t>2019-11-13</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -5153,7 +5153,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>11/11/2019 00:00</t>
+          <t>2019-11-11</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -5178,7 +5178,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>11/11/2019 00:00</t>
+          <t>2019-11-11</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -5231,7 +5231,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>04/11/2019 00:00</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -5256,7 +5256,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>04/11/2019 00:00</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -5309,7 +5309,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>13/11/2019 00:00</t>
+          <t>2019-11-13</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -5334,7 +5334,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>13/11/2019 00:00</t>
+          <t>2019-11-13</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -5387,7 +5387,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>12/11/2019 00:00</t>
+          <t>2019-11-12</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>12/11/2019 00:00</t>
+          <t>2019-11-12</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -5465,7 +5465,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>18/11/2019 00:00</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5490,7 +5490,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>18/11/2019 00:00</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -5543,7 +5543,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>07/01/2020 00:00</t>
+          <t>2020-01-07</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5568,7 +5568,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>07/01/2020 00:00</t>
+          <t>2020-01-07</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -5621,7 +5621,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>25/01/2022 09:07</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5646,7 +5646,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>25/01/2022 09:07</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -5699,7 +5699,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>25/01/2022 09:07</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5724,7 +5724,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>25/01/2022 09:07</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">

--- a/analysis/metadata/P13_1/P13_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P13_1/P13_1_minimal_metadata.xlsx
@@ -629,7 +629,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2019-10-28</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2019-10-28</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2019-10-29</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2019-10-29</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -2735,7 +2735,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2019-11-25</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2760,7 +2760,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2019-11-25</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2019-10-29</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3384,7 +3384,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2019-10-29</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3749,7 +3749,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2019-10-30</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3774,7 +3774,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2019-10-30</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -3827,7 +3827,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2019-10-31</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2019-10-31</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -4295,7 +4295,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2019-11-25</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4320,7 +4320,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2019-11-25</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -4373,7 +4373,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2020-10-30</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4398,7 +4398,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2020-10-30</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -4685,7 +4685,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2020-10-31</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4710,7 +4710,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2020-10-31</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -4763,7 +4763,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2019-10-31</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4788,7 +4788,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2019-10-31</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -4841,7 +4841,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2019-11-25</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4866,7 +4866,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2019-11-25</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -5621,7 +5621,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2019-11-25</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5646,7 +5646,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2019-11-25</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -5699,7 +5699,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2019-10-28</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5724,7 +5724,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2019-10-28</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">

--- a/analysis/metadata/P13_1/P13_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P13_1/P13_1_minimal_metadata.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P69"/>
+  <dimension ref="A1:P137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -503,7 +503,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MFD10529</t>
+          <t>MFD10528</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -598,7 +598,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MFD10530</t>
+          <t>MFD10529</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -607,10 +607,10 @@
         </is>
       </c>
       <c r="C4">
-        <v>55.0622</v>
+        <v>55.0459</v>
       </c>
       <c r="D4">
-        <v>10.6835</v>
+        <v>10.4152</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -624,17 +624,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">egsmade </t>
+          <t xml:space="preserve">egebjerg syd </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2019-10-28</t>
+          <t>2019-11-01</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>mbndk plant, 105000 pe capacity, influent wastewater, sampled 28-10-2019 to 15-11-2019</t>
+          <t>mbndkl plant, 18333 pe capacity, influent wastewater, sampled 01-11-2019 to 22-11-2019</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -654,12 +654,12 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2019-10-28</t>
+          <t>2019-11-01</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MFD10531</t>
+          <t>MFD10529</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -685,10 +685,10 @@
         </is>
       </c>
       <c r="C5">
-        <v>56.4383</v>
+        <v>55.0459</v>
       </c>
       <c r="D5">
-        <v>10.914</v>
+        <v>10.4152</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -702,17 +702,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>fornæs</t>
+          <t xml:space="preserve">egebjerg syd </t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2019-11-04</t>
+          <t>2019-11-01</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>mbndk plant, 69704 pe capacity, influent wastewater, sampled 04-11-2019 to 25-11-2019</t>
+          <t>mbndkl plant, 18333 pe capacity, influent wastewater, sampled 01-11-2019 to 22-11-2019</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -732,7 +732,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2019-11-04</t>
+          <t>2019-11-01</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MFD10532</t>
+          <t>MFD10530</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -763,10 +763,10 @@
         </is>
       </c>
       <c r="C6">
-        <v>56.1134</v>
+        <v>55.0622</v>
       </c>
       <c r="D6">
-        <v>12.3099</v>
+        <v>10.6835</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -780,17 +780,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>gilleleje</t>
+          <t xml:space="preserve">egsmade </t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2019-11-14</t>
+          <t>2019-10-28</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>mbndkl plant, 10000 pe capacity, influent wastewater, sampled 14-11-2019 to 27-11-2019</t>
+          <t>mbndk plant, 105000 pe capacity, influent wastewater, sampled 28-10-2019 to 15-11-2019</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -810,12 +810,12 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2019-11-14</t>
+          <t>2019-10-28</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MFD10533</t>
+          <t>MFD10530</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -841,10 +841,10 @@
         </is>
       </c>
       <c r="C7">
-        <v>56.0121</v>
+        <v>55.0622</v>
       </c>
       <c r="D7">
-        <v>12.1968</v>
+        <v>10.6835</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -858,17 +858,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>helsinge</t>
+          <t xml:space="preserve">egsmade </t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2019-11-14</t>
+          <t>2019-10-28</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>mbndkf plant, 27500 pe capacity, influent wastewater, sampled 14-11-2019 to 27-11-2019</t>
+          <t>mbndk plant, 105000 pe capacity, influent wastewater, sampled 28-10-2019 to 15-11-2019</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2019-11-14</t>
+          <t>2019-10-28</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MFD10534</t>
+          <t>MFD10531</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -919,10 +919,10 @@
         </is>
       </c>
       <c r="C8">
-        <v>56.3571</v>
+        <v>56.4383</v>
       </c>
       <c r="D8">
-        <v>8.601000000000001</v>
+        <v>10.914</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -936,17 +936,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>holstebro</t>
+          <t>fornæs</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2019-10-21</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>mbndk plant, 230000 pe capacity, influent wastewater, sampled 21-10-2019 to 15-11-2019</t>
+          <t>mbndk plant, 69704 pe capacity, influent wastewater, sampled 04-11-2019 to 25-11-2019</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -966,12 +966,12 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2019-10-21</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MFD10535</t>
+          <t>MFD10531</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -997,10 +997,10 @@
         </is>
       </c>
       <c r="C9">
-        <v>56.4815</v>
+        <v>56.4383</v>
       </c>
       <c r="D9">
-        <v>8.771699999999999</v>
+        <v>10.914</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -1014,17 +1014,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>vinderup</t>
+          <t>fornæs</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2019-10-21</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>mbndk plant, 20000 pe capacity, influent wastewater, sampled 21-10-2019 to 15-11-2019</t>
+          <t>mbndk plant, 69704 pe capacity, influent wastewater, sampled 04-11-2019 to 25-11-2019</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2019-10-21</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MFD10536</t>
+          <t>MFD10532</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1075,10 +1075,10 @@
         </is>
       </c>
       <c r="C10">
-        <v>55.855</v>
+        <v>56.1134</v>
       </c>
       <c r="D10">
-        <v>9.854100000000001</v>
+        <v>12.3099</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1092,17 +1092,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>horsens</t>
+          <t>gilleleje</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-14</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>mbndk plant, 210000 pe capacity, influent wastewater, sampled 06-11-2019 to 03-12-2019</t>
+          <t>mbndkl plant, 10000 pe capacity, influent wastewater, sampled 14-11-2019 to 27-11-2019</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1122,12 +1122,12 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-14</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MFD10537</t>
+          <t>MFD10532</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1153,10 +1153,10 @@
         </is>
       </c>
       <c r="C11">
-        <v>55.4746</v>
+        <v>56.1134</v>
       </c>
       <c r="D11">
-        <v>10.6667</v>
+        <v>12.3099</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1170,17 +1170,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>kerteminde</t>
+          <t>gilleleje</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-14</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>mbndk plant, 25000 pe capacity, influent wastewater, sampled 06-11-2019 to 19-11-2019</t>
+          <t>mbndkl plant, 10000 pe capacity, influent wastewater, sampled 14-11-2019 to 27-11-2019</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-14</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1222,7 +1222,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MFD10538</t>
+          <t>MFD10533</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1231,10 +1231,10 @@
         </is>
       </c>
       <c r="C12">
-        <v>55.5238</v>
+        <v>56.0121</v>
       </c>
       <c r="D12">
-        <v>9.768700000000001</v>
+        <v>12.1968</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1248,17 +1248,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>middelfart</t>
+          <t>helsinge</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2019-10-16</t>
+          <t>2019-11-14</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>mbndk plant, 25000 pe capacity, influent wastewater, sampled 16-10-2019 to 21-11-2019</t>
+          <t>mbndkf plant, 27500 pe capacity, influent wastewater, sampled 14-11-2019 to 27-11-2019</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1278,12 +1278,12 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2019-10-16</t>
+          <t>2019-11-14</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1300,7 +1300,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MFD10539</t>
+          <t>MFD10533</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1309,10 +1309,10 @@
         </is>
       </c>
       <c r="C13">
-        <v>54.6512</v>
+        <v>56.0121</v>
       </c>
       <c r="D13">
-        <v>11.3589</v>
+        <v>12.1968</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1326,17 +1326,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t xml:space="preserve">rødbyhavn </t>
+          <t>helsinge</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2019-10-29</t>
+          <t>2019-11-14</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>mbndk plant, 15828 pe capacity, influent wastewater, sampled 29-10-2019 to 13-11-2019</t>
+          <t>mbndkf plant, 27500 pe capacity, influent wastewater, sampled 14-11-2019 to 27-11-2019</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2019-10-29</t>
+          <t>2019-11-14</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1378,7 +1378,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MFD10540</t>
+          <t>MFD10534</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="C14">
-        <v>57.204</v>
+        <v>56.3571</v>
       </c>
       <c r="D14">
-        <v>9.686999999999999</v>
+        <v>8.601000000000001</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1404,17 +1404,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>sigsgård</t>
+          <t>holstebro</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>2019-10-21</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>mbndk plant, 39900 pe capacity, influent wastewater, sampled 07-11-2019 to 04-12-2019</t>
+          <t>mbndk plant, 230000 pe capacity, influent wastewater, sampled 21-10-2019 to 15-11-2019</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1434,12 +1434,12 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>2019-10-21</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1456,7 +1456,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MFD10541</t>
+          <t>MFD10534</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1465,10 +1465,10 @@
         </is>
       </c>
       <c r="C15">
-        <v>56.1062</v>
+        <v>56.3571</v>
       </c>
       <c r="D15">
-        <v>12.1853</v>
+        <v>8.601000000000001</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1482,17 +1482,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>udsholt</t>
+          <t>holstebro</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2019-11-14</t>
+          <t>2019-10-21</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>mbndk plant, 13000 pe capacity, influent wastewater, sampled 14-11-2019 to 27-11-2019</t>
+          <t>mbndk plant, 230000 pe capacity, influent wastewater, sampled 21-10-2019 to 15-11-2019</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2019-11-14</t>
+          <t>2019-10-21</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1534,7 +1534,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MFD10542</t>
+          <t>MFD10535</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1543,10 +1543,10 @@
         </is>
       </c>
       <c r="C16">
-        <v>55.2447</v>
+        <v>56.4815</v>
       </c>
       <c r="D16">
-        <v>9.3422</v>
+        <v>8.771699999999999</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1560,17 +1560,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>vojens</t>
+          <t>vinderup</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2019-10-20</t>
+          <t>2019-10-21</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>mbndks plant, 65000 pe capacity, influent wastewater, sampled 20-10-2019 to 13-11-2019</t>
+          <t>mbndk plant, 20000 pe capacity, influent wastewater, sampled 21-10-2019 to 15-11-2019</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1590,12 +1590,12 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2019-10-20</t>
+          <t>2019-10-21</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1612,7 +1612,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MFD10543</t>
+          <t>MFD10535</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1621,10 +1621,10 @@
         </is>
       </c>
       <c r="C17">
-        <v>55.5441</v>
+        <v>56.4815</v>
       </c>
       <c r="D17">
-        <v>11.3722</v>
+        <v>8.771699999999999</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1638,17 +1638,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>ruds vedby</t>
+          <t>vinderup</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-10-21</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>mbndk plant, 2500 pe capacity, influent wastewater</t>
+          <t>mbndk plant, 20000 pe capacity, influent wastewater, sampled 21-10-2019 to 15-11-2019</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-10-21</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1690,7 +1690,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MFD10544</t>
+          <t>MFD10536</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1699,10 +1699,10 @@
         </is>
       </c>
       <c r="C18">
-        <v>55.4319</v>
+        <v>55.855</v>
       </c>
       <c r="D18">
-        <v>11.6323</v>
+        <v>9.854100000000001</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1716,17 +1716,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>sorø</t>
+          <t>horsens</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2019-11-14</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>mbndkl plant, 30000 pe capacity, influent wastewater</t>
+          <t>mbndk plant, 210000 pe capacity, influent wastewater, sampled 06-11-2019 to 03-12-2019</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1746,12 +1746,12 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2019-11-14</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1768,7 +1768,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MFD10545</t>
+          <t>MFD10536</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1777,10 +1777,10 @@
         </is>
       </c>
       <c r="C19">
-        <v>55.2216</v>
+        <v>55.855</v>
       </c>
       <c r="D19">
-        <v>10.4507</v>
+        <v>9.854100000000001</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1794,17 +1794,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t xml:space="preserve">ringe </t>
+          <t>horsens</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>mbndkl plant, 14000 pe capacity, influent wastewater, sampled 05-11-2019 to 03-12-2019</t>
+          <t>mbndk plant, 210000 pe capacity, influent wastewater, sampled 06-11-2019 to 03-12-2019</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1846,7 +1846,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MFD10546</t>
+          <t>MFD10537</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1855,10 +1855,10 @@
         </is>
       </c>
       <c r="C20">
-        <v>55.2309</v>
+        <v>55.4746</v>
       </c>
       <c r="D20">
-        <v>10.4748</v>
+        <v>10.6667</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1872,17 +1872,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>rynkeby</t>
+          <t>kerteminde</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>mbnd plant, 20000 pe capacity, influent wastewater, sampled 15-11-2019 to 06-12-2019</t>
+          <t>mbndk plant, 25000 pe capacity, influent wastewater, sampled 06-11-2019 to 19-11-2019</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1902,12 +1902,12 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1924,7 +1924,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MFD10547</t>
+          <t>MFD10537</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1933,10 +1933,10 @@
         </is>
       </c>
       <c r="C21">
-        <v>55.8106</v>
+        <v>55.4746</v>
       </c>
       <c r="D21">
-        <v>10.6354</v>
+        <v>10.6667</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1950,17 +1950,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>ballen</t>
+          <t>kerteminde</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2019-11-13</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>mbndk plant, 6700 pe capacity, influent wastewater, sampled 13-11-2019 to 06-12-2019</t>
+          <t>mbndk plant, 25000 pe capacity, influent wastewater, sampled 06-11-2019 to 19-11-2019</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1980,7 +1980,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2019-11-13</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -2002,7 +2002,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MFD10548</t>
+          <t>MFD10538</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2011,10 +2011,10 @@
         </is>
       </c>
       <c r="C22">
-        <v>56.3763</v>
+        <v>55.5238</v>
       </c>
       <c r="D22">
-        <v>9.6806</v>
+        <v>9.768700000000001</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2028,17 +2028,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>bjerringbro</t>
+          <t>middelfart</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-10-16</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>mbndk plant, 80000 pe capacity, influent wastewater, sampled 06-11-2019 to 02-12-2019</t>
+          <t>mbndk plant, 25000 pe capacity, influent wastewater, sampled 16-10-2019 to 21-11-2019</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2058,12 +2058,12 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-10-16</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -2080,7 +2080,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MFD10549</t>
+          <t>MFD10538</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2089,10 +2089,10 @@
         </is>
       </c>
       <c r="C23">
-        <v>55.9576</v>
+        <v>55.5238</v>
       </c>
       <c r="D23">
-        <v>9.105</v>
+        <v>9.768700000000001</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2106,17 +2106,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>brande</t>
+          <t>middelfart</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2019-10-17</t>
+          <t>2019-10-16</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>mbndk plant, 17300 pe capacity, influent wastewater, sampled 17-10-2019 to 21-11-2019</t>
+          <t>mbndk plant, 25000 pe capacity, influent wastewater, sampled 16-10-2019 to 21-11-2019</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2136,7 +2136,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2019-10-17</t>
+          <t>2019-10-16</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2158,7 +2158,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MFD10550</t>
+          <t>MFD10539</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2167,10 +2167,10 @@
         </is>
       </c>
       <c r="C24">
-        <v>54.8823</v>
+        <v>54.6512</v>
       </c>
       <c r="D24">
-        <v>9.660500000000001</v>
+        <v>11.3589</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2184,17 +2184,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>broager</t>
+          <t xml:space="preserve">rødbyhavn </t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2019-11-12</t>
+          <t>2019-10-29</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>mbndk plant, 10000 pe capacity, influent wastewater, sampled 12-11-2019 to 16-12-2019</t>
+          <t>mbndk plant, 15828 pe capacity, influent wastewater, sampled 29-10-2019 to 13-11-2019</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2214,12 +2214,12 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2019-11-12</t>
+          <t>2019-10-29</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2236,7 +2236,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MFD10551</t>
+          <t>MFD10539</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2245,10 +2245,10 @@
         </is>
       </c>
       <c r="C25">
-        <v>55.9409</v>
+        <v>54.6512</v>
       </c>
       <c r="D25">
-        <v>9.651</v>
+        <v>11.3589</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2262,17 +2262,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>brædstrup</t>
+          <t xml:space="preserve">rødbyhavn </t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-10-29</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>mbndk plant, 16000 pe capacity, influent wastewater, sampled 05-11-2019 to 08-12-2019</t>
+          <t>mbndk plant, 15828 pe capacity, influent wastewater, sampled 29-10-2019 to 13-11-2019</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2292,7 +2292,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-10-29</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2314,7 +2314,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MFD10552</t>
+          <t>MFD10540</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2323,10 +2323,10 @@
         </is>
       </c>
       <c r="C26">
-        <v>55.3537</v>
+        <v>57.204</v>
       </c>
       <c r="D26">
-        <v>9.497199999999999</v>
+        <v>9.686999999999999</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2340,17 +2340,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>christiansfeld</t>
+          <t>sigsgård</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2019-11-11</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>mbndk plant, 30000 pe capacity, influent wastewater, sampled 11-11-2019 to 26-11-2019</t>
+          <t>mbndk plant, 39900 pe capacity, influent wastewater, sampled 07-11-2019 to 04-12-2019</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2370,12 +2370,12 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2019-11-11</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2392,7 +2392,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MFD10553</t>
+          <t>MFD10540</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2401,10 +2401,10 @@
         </is>
       </c>
       <c r="C27">
-        <v>55.4584</v>
+        <v>57.204</v>
       </c>
       <c r="D27">
-        <v>8.49</v>
+        <v>9.686999999999999</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>esbjerg øst</t>
+          <t>sigsgård</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -2428,7 +2428,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>mbndk plant, 120000 pe capacity, influent wastewater, sampled 07-11-2019 to 29-11-2019</t>
+          <t>mbndk plant, 39900 pe capacity, influent wastewater, sampled 07-11-2019 to 04-12-2019</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2470,7 +2470,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MFD10554</t>
+          <t>MFD10541</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2479,10 +2479,10 @@
         </is>
       </c>
       <c r="C28">
-        <v>56.2133</v>
+        <v>56.1062</v>
       </c>
       <c r="D28">
-        <v>10.2424</v>
+        <v>12.1853</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2496,17 +2496,17 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>egå</t>
+          <t>udsholt</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2019-09-16</t>
+          <t>2019-11-14</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>mbndkf plant, 120000 pe capacity, influent wastewater</t>
+          <t>mbndk plant, 13000 pe capacity, influent wastewater, sampled 14-11-2019 to 27-11-2019</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2526,12 +2526,12 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2019-09-16</t>
+          <t>2019-11-14</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2548,7 +2548,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>MFD10555</t>
+          <t>MFD10541</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="C29">
-        <v>55.7675</v>
+        <v>56.1062</v>
       </c>
       <c r="D29">
-        <v>8.8598</v>
+        <v>12.1853</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -2574,17 +2574,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>billund</t>
+          <t>udsholt</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2019-10-09</t>
+          <t>2019-11-14</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>mbndkl plant, 70000 pe capacity, influent wastewater</t>
+          <t>mbndk plant, 13000 pe capacity, influent wastewater, sampled 14-11-2019 to 27-11-2019</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2604,7 +2604,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2019-10-09</t>
+          <t>2019-11-14</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2626,7 +2626,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>MFD10556</t>
+          <t>MFD10542</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2635,10 +2635,10 @@
         </is>
       </c>
       <c r="C30">
-        <v>55.2466</v>
+        <v>55.2447</v>
       </c>
       <c r="D30">
-        <v>12.1091</v>
+        <v>9.3422</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -2652,17 +2652,17 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>fakse</t>
+          <t>vojens</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2019-10-23</t>
+          <t>2019-10-20</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>mbndk plant, 130000 pe capacity, influent wastewater, sampled 23-10-2019 to 01-11-2019</t>
+          <t>mbndks plant, 65000 pe capacity, influent wastewater, sampled 20-10-2019 to 13-11-2019</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2682,12 +2682,12 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2019-10-23</t>
+          <t>2019-10-20</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2704,7 +2704,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>MFD10557</t>
+          <t>MFD10542</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2713,10 +2713,10 @@
         </is>
       </c>
       <c r="C31">
-        <v>57.4253</v>
+        <v>55.2447</v>
       </c>
       <c r="D31">
-        <v>10.5256</v>
+        <v>9.3422</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -2730,17 +2730,17 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>frederikshavn</t>
+          <t>vojens</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2019-11-25</t>
+          <t>2019-10-20</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>mbndk plant, 135000 pe capacity, influent wastewater, sampled 25-11-2019 to 06-12-2019</t>
+          <t>mbndks plant, 65000 pe capacity, influent wastewater, sampled 20-10-2019 to 13-11-2019</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2760,7 +2760,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2019-11-25</t>
+          <t>2019-10-20</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2782,7 +2782,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MFD10558</t>
+          <t>MFD10543</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="C32">
-        <v>55.0834</v>
+        <v>55.5441</v>
       </c>
       <c r="D32">
-        <v>10.1961</v>
+        <v>11.3722</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2808,17 +2808,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>fåborg</t>
+          <t>ruds vedby</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2019-11-04</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>mbndk plant, 70000 pe capacity, influent wastewater, sampled 04-11-2019 to 04-12-2019</t>
+          <t>mbndk plant, 2500 pe capacity, influent wastewater</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2838,12 +2838,12 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2019-11-04</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2860,7 +2860,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MFD10559</t>
+          <t>MFD10543</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2869,10 +2869,10 @@
         </is>
       </c>
       <c r="C33">
-        <v>55.8475</v>
+        <v>55.5441</v>
       </c>
       <c r="D33">
-        <v>9.214499999999999</v>
+        <v>11.3722</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -2886,17 +2886,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t xml:space="preserve">give </t>
+          <t>ruds vedby</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>mbndk plant, 42000 pe capacity, influent wastewater, sampled 01-11-2019 to 14-11-2019</t>
+          <t>mbndk plant, 2500 pe capacity, influent wastewater</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2019-11-01</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2938,7 +2938,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MFD10560</t>
+          <t>MFD10544</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="C34">
-        <v>55.0416</v>
+        <v>55.4319</v>
       </c>
       <c r="D34">
-        <v>9.8446</v>
+        <v>11.6323</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -2964,17 +2964,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t xml:space="preserve">himmark </t>
+          <t>sorø</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2019-11-11</t>
+          <t>2019-11-14</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>mbndk plant, 15000 pe capacity, influent wastewater, sampled 11-11-2019 to 11-12-2019</t>
+          <t>mbndkl plant, 30000 pe capacity, influent wastewater</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2994,12 +2994,12 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2019-11-11</t>
+          <t>2019-11-14</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -3016,7 +3016,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MFD10561</t>
+          <t>MFD10544</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3025,10 +3025,10 @@
         </is>
       </c>
       <c r="C35">
-        <v>57.5774</v>
+        <v>55.4319</v>
       </c>
       <c r="D35">
-        <v>9.9938</v>
+        <v>11.6323</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -3042,17 +3042,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>hirtshals</t>
+          <t>sorø</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2019-11-09</t>
+          <t>2019-11-14</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>mbndk plant, 133000 pe capacity, influent wastewater, sampled 09-11-2019 to 03-12-2019</t>
+          <t>mbndkl plant, 30000 pe capacity, influent wastewater</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -3072,7 +3072,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2019-11-09</t>
+          <t>2019-11-14</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -3094,7 +3094,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>MFD10562</t>
+          <t>MFD10545</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3103,10 +3103,10 @@
         </is>
       </c>
       <c r="C36">
-        <v>54.8882</v>
+        <v>55.2216</v>
       </c>
       <c r="D36">
-        <v>9.5756</v>
+        <v>10.4507</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -3120,17 +3120,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>huk</t>
+          <t xml:space="preserve">ringe </t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2019-11-12</t>
+          <t>2019-11-05</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>mbndk plant, 52500 pe capacity, influent wastewater, sampled 12-11-2019 to 16-12-2019</t>
+          <t>mbndkl plant, 14000 pe capacity, influent wastewater, sampled 05-11-2019 to 03-12-2019</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -3150,12 +3150,12 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2019-11-12</t>
+          <t>2019-11-05</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -3172,7 +3172,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>MFD10563</t>
+          <t>MFD10545</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3181,10 +3181,10 @@
         </is>
       </c>
       <c r="C37">
-        <v>56.2915</v>
+        <v>55.2216</v>
       </c>
       <c r="D37">
-        <v>9.4457</v>
+        <v>10.4507</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -3198,17 +3198,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>kjellerup</t>
+          <t xml:space="preserve">ringe </t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2019-10-23</t>
+          <t>2019-11-05</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>mbndkl plant, 25000 pe capacity, influent wastewater</t>
+          <t>mbndkl plant, 14000 pe capacity, influent wastewater, sampled 05-11-2019 to 03-12-2019</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -3228,7 +3228,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2019-10-23</t>
+          <t>2019-11-05</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -3250,7 +3250,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>MFD10564</t>
+          <t>MFD10546</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3259,10 +3259,10 @@
         </is>
       </c>
       <c r="C38">
-        <v>54.8952</v>
+        <v>55.2309</v>
       </c>
       <c r="D38">
-        <v>10.0591</v>
+        <v>10.4748</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -3276,17 +3276,17 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>hummelvig</t>
+          <t>rynkeby</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2019-11-11</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>mbndk plant, 5000 pe capacity, influent wastewater, sampled 11-11-2019 to 11-12-2019</t>
+          <t>mbnd plant, 20000 pe capacity, influent wastewater, sampled 15-11-2019 to 06-12-2019</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -3306,12 +3306,12 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2019-11-11</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3328,7 +3328,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MFD10565</t>
+          <t>MFD10546</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3337,10 +3337,10 @@
         </is>
       </c>
       <c r="C39">
-        <v>54.8265</v>
+        <v>55.2309</v>
       </c>
       <c r="D39">
-        <v>11.5441</v>
+        <v>10.4748</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -3354,17 +3354,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>hunseby strand</t>
+          <t>rynkeby</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2019-10-29</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>mbndk plant, 40000 pe capacity, influent wastewater, sampled 29-10-2019 to 14-11-2019</t>
+          <t>mbnd plant, 20000 pe capacity, influent wastewater, sampled 15-11-2019 to 06-12-2019</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3384,7 +3384,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2019-10-29</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3406,7 +3406,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>MFD10566</t>
+          <t>MFD10547</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3415,10 +3415,10 @@
         </is>
       </c>
       <c r="C40">
-        <v>56.1512</v>
+        <v>55.8106</v>
       </c>
       <c r="D40">
-        <v>9.1416</v>
+        <v>10.6354</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -3432,17 +3432,17 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>ikast</t>
+          <t>ballen</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2019-10-17</t>
+          <t>2019-11-13</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>mbndk plant, 63000 pe capacity, influent wastewater, sampled 17-10-2019 to 21-11-2019</t>
+          <t>mbndk plant, 6700 pe capacity, influent wastewater, sampled 13-11-2019 to 06-12-2019</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -3462,12 +3462,12 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2019-10-17</t>
+          <t>2019-11-13</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3484,7 +3484,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>MFD10567</t>
+          <t>MFD10547</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3493,10 +3493,10 @@
         </is>
       </c>
       <c r="C41">
-        <v>56.3093</v>
+        <v>55.8106</v>
       </c>
       <c r="D41">
-        <v>9.153700000000001</v>
+        <v>10.6354</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -3510,17 +3510,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t xml:space="preserve">karup </t>
+          <t>ballen</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>2019-11-13</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>mbndk plant, 15000 pe capacity, influent wastewater, sampled 07-11-2019 to 28-11-2019</t>
+          <t>mbndk plant, 6700 pe capacity, influent wastewater, sampled 13-11-2019 to 06-12-2019</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3540,7 +3540,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>2019-11-13</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3562,7 +3562,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>MFD10568</t>
+          <t>MFD10548</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3571,10 +3571,10 @@
         </is>
       </c>
       <c r="C42">
-        <v>55.4722</v>
+        <v>56.3763</v>
       </c>
       <c r="D42">
-        <v>9.5748</v>
+        <v>9.6806</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -3588,17 +3588,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>kolding</t>
+          <t>bjerringbro</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2019-11-11</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>mbndk plant, 125000 pe capacity, influent wastewater, sampled 11-11-2019 to 25-11-2019</t>
+          <t>mbndk plant, 80000 pe capacity, influent wastewater, sampled 06-11-2019 to 02-12-2019</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3618,12 +3618,12 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2019-11-11</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3640,7 +3640,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>MFD10569</t>
+          <t>MFD10548</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3649,10 +3649,10 @@
         </is>
       </c>
       <c r="C43">
-        <v>55.3263</v>
+        <v>56.3763</v>
       </c>
       <c r="D43">
-        <v>11.2035</v>
+        <v>9.6806</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -3666,17 +3666,17 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t xml:space="preserve">korsør </t>
+          <t>bjerringbro</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2020-11-01</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>mbndk plant, 50000 pe capacity, influent wastewater, sampled 01-11-2020 to 01-12-2020</t>
+          <t>mbndk plant, 80000 pe capacity, influent wastewater, sampled 06-11-2019 to 02-12-2019</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3696,7 +3696,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2020-11-01</t>
+          <t>2019-11-06</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -3718,7 +3718,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>MFD10570</t>
+          <t>MFD10549</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3727,10 +3727,10 @@
         </is>
       </c>
       <c r="C44">
-        <v>56.9702</v>
+        <v>55.9576</v>
       </c>
       <c r="D44">
-        <v>9.270099999999999</v>
+        <v>9.105</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -3744,17 +3744,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>løgstør</t>
+          <t>brande</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2019-10-30</t>
+          <t>2019-10-17</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>mbndkl plant, 73000 pe capacity, influent wastewater, sampled 30-10-2019 to 20-11-2019</t>
+          <t>mbndk plant, 17300 pe capacity, influent wastewater, sampled 17-10-2019 to 21-11-2019</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3774,12 +3774,12 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2019-10-30</t>
+          <t>2019-10-17</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3796,7 +3796,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>MFD10571</t>
+          <t>MFD10549</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3805,10 +3805,10 @@
         </is>
       </c>
       <c r="C45">
-        <v>54.8667</v>
+        <v>55.9576</v>
       </c>
       <c r="D45">
-        <v>10.5049</v>
+        <v>9.105</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -3822,17 +3822,17 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>marstal</t>
+          <t>brande</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2019-10-31</t>
+          <t>2019-10-17</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>mbndk plant, 7500 pe capacity, influent wastewater</t>
+          <t>mbndk plant, 17300 pe capacity, influent wastewater, sampled 17-10-2019 to 21-11-2019</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2019-10-31</t>
+          <t>2019-10-17</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3874,7 +3874,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>MFD10572</t>
+          <t>MFD10550</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3883,10 +3883,10 @@
         </is>
       </c>
       <c r="C46">
-        <v>56.7412</v>
+        <v>54.8823</v>
       </c>
       <c r="D46">
-        <v>10.1158</v>
+        <v>9.660500000000001</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -3900,17 +3900,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>mariagerfjord</t>
+          <t>broager</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2019-10-09</t>
+          <t>2019-11-12</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>mbndk plant, 75000 pe capacity, influent wastewater, sampled 24-09-2019 to 27-10-2019</t>
+          <t>mbndk plant, 10000 pe capacity, influent wastewater, sampled 12-11-2019 to 16-12-2019</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3930,12 +3930,12 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2019-10-09</t>
+          <t>2019-11-12</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3952,7 +3952,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>MFD10573</t>
+          <t>MFD10550</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3961,10 +3961,10 @@
         </is>
       </c>
       <c r="C47">
-        <v>54.7738</v>
+        <v>54.8823</v>
       </c>
       <c r="D47">
-        <v>11.8813</v>
+        <v>9.660500000000001</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -3978,17 +3978,17 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>nykøbing f. (nord)</t>
+          <t>broager</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2019-11-13</t>
+          <t>2019-11-12</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>mbndk plant, 57000 pe capacity, influent wastewater, sampled 13-11-2019 to 05-11-2019</t>
+          <t>mbndk plant, 10000 pe capacity, influent wastewater, sampled 12-11-2019 to 16-12-2019</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -4008,7 +4008,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2019-11-13</t>
+          <t>2019-11-12</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -4030,7 +4030,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>MFD10574</t>
+          <t>MFD10551</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -4039,10 +4039,10 @@
         </is>
       </c>
       <c r="C48">
-        <v>55.9867</v>
+        <v>55.9409</v>
       </c>
       <c r="D48">
-        <v>10.1586</v>
+        <v>9.651</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -4056,17 +4056,17 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>odder saksild bugt</t>
+          <t>brædstrup</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-05</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>mbndkf plant, 25000 pe capacity, influent wastewater, sampled 06-11-2019 to 03-12-2019</t>
+          <t>mbndk plant, 16000 pe capacity, influent wastewater, sampled 05-11-2019 to 08-12-2019</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -4086,12 +4086,12 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2019-11-06</t>
+          <t>2019-11-05</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -4108,7 +4108,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>MFD10575</t>
+          <t>MFD10551</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -4117,10 +4117,10 @@
         </is>
       </c>
       <c r="C49">
-        <v>56.0913</v>
+        <v>55.9409</v>
       </c>
       <c r="D49">
-        <v>8.24</v>
+        <v>9.651</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -4134,17 +4134,17 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>ringkøbing</t>
+          <t>brædstrup</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2019-10-17</t>
+          <t>2019-11-05</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>mbndk plant, 42500 pe capacity, influent wastewater, sampled 17-10-2019 to 16-12-2019</t>
+          <t>mbndk plant, 16000 pe capacity, influent wastewater, sampled 05-11-2019 to 08-12-2019</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2019-10-17</t>
+          <t>2019-11-05</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -4186,7 +4186,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>MFD10576</t>
+          <t>MFD10552</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -4195,10 +4195,10 @@
         </is>
       </c>
       <c r="C50">
-        <v>55.3134</v>
+        <v>55.3537</v>
       </c>
       <c r="D50">
-        <v>10.4998</v>
+        <v>9.497199999999999</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -4212,17 +4212,17 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t xml:space="preserve">sdr. nærå </t>
+          <t>christiansfeld</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2019-11-04</t>
+          <t>2019-11-11</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>mbndkl plant, 12000 pe capacity, influent wastewater, sampled 04-11-2019 to 05-12-2019</t>
+          <t>mbndk plant, 30000 pe capacity, influent wastewater, sampled 11-11-2019 to 26-11-2019</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -4242,12 +4242,12 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2019-11-04</t>
+          <t>2019-11-11</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -4264,7 +4264,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>MFD10577</t>
+          <t>MFD10552</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -4273,10 +4273,10 @@
         </is>
       </c>
       <c r="C51">
-        <v>57.7379</v>
+        <v>55.3537</v>
       </c>
       <c r="D51">
-        <v>10.5688</v>
+        <v>9.497199999999999</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -4290,17 +4290,17 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>skagen</t>
+          <t>christiansfeld</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2019-11-25</t>
+          <t>2019-11-11</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>mbndk plant, 194000 pe capacity, influent wastewater, sampled 25-11-2019 to 06-12-2019</t>
+          <t>mbndk plant, 30000 pe capacity, influent wastewater, sampled 11-11-2019 to 26-11-2019</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -4320,7 +4320,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2019-11-25</t>
+          <t>2019-11-11</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -4342,7 +4342,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>MFD10578</t>
+          <t>MFD10553</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -4351,10 +4351,10 @@
         </is>
       </c>
       <c r="C52">
-        <v>55.2464</v>
+        <v>55.4584</v>
       </c>
       <c r="D52">
-        <v>11.2984</v>
+        <v>8.49</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -4368,17 +4368,17 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>skælskør</t>
+          <t>esbjerg øst</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>mbndk plant, 35000 pe capacity, influent wastewater, sampled 30-10-2020 to 01-12-2020</t>
+          <t>mbndk plant, 120000 pe capacity, influent wastewater, sampled 07-11-2019 to 29-11-2019</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -4398,12 +4398,12 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4420,7 +4420,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>MFD10579</t>
+          <t>MFD10553</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -4429,10 +4429,10 @@
         </is>
       </c>
       <c r="C53">
-        <v>56.1752</v>
+        <v>55.4584</v>
       </c>
       <c r="D53">
-        <v>9.583299999999999</v>
+        <v>8.49</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -4446,17 +4446,17 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>søholt</t>
+          <t>esbjerg øst</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2019-10-23</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>mbndks plant, 105000 pe capacity, influent wastewater</t>
+          <t>mbndk plant, 120000 pe capacity, influent wastewater, sampled 07-11-2019 to 29-11-2019</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -4476,7 +4476,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2019-10-23</t>
+          <t>2019-11-07</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -4498,7 +4498,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>MFD10580</t>
+          <t>MFD10554</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -4507,10 +4507,10 @@
         </is>
       </c>
       <c r="C54">
-        <v>56.1017</v>
+        <v>56.2133</v>
       </c>
       <c r="D54">
-        <v>9.554600000000001</v>
+        <v>10.2424</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -4524,17 +4524,17 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>them</t>
+          <t>egå</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2019-10-23</t>
+          <t>2019-09-16</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>mbndk plant, 12500 pe capacity, influent wastewater</t>
+          <t>mbndkf plant, 120000 pe capacity, influent wastewater</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -4554,12 +4554,12 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>2019-10-23</t>
+          <t>2019-09-16</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4576,7 +4576,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>MFD10581</t>
+          <t>MFD10554</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -4585,10 +4585,10 @@
         </is>
       </c>
       <c r="C55">
-        <v>55.1491</v>
+        <v>56.2133</v>
       </c>
       <c r="D55">
-        <v>8.749499999999999</v>
+        <v>10.2424</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -4602,17 +4602,17 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>skærbæk</t>
+          <t>egå</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>2019-09-16</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>mbnk plant, 15000 pe capacity, influent wastewater, sampled 07-11-2019 to 03-12-2019</t>
+          <t>mbndkf plant, 120000 pe capacity, influent wastewater</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -4632,7 +4632,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>2019-09-16</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -4654,7 +4654,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>MFD10582</t>
+          <t>MFD10555</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -4663,10 +4663,10 @@
         </is>
       </c>
       <c r="C56">
-        <v>55.4163</v>
+        <v>55.7675</v>
       </c>
       <c r="D56">
-        <v>11.3409</v>
+        <v>8.8598</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -4680,17 +4680,17 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>slagelse</t>
+          <t>billund</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2020-10-31</t>
+          <t>2019-10-09</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>mbndkl plant, 115000 pe capacity, influent wastewater, sampled 31-10-2020 to 01-12-2020</t>
+          <t>mbndkl plant, 70000 pe capacity, influent wastewater</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -4710,12 +4710,12 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2020-10-31</t>
+          <t>2019-10-09</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4732,7 +4732,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>MFD10583</t>
+          <t>MFD10555</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4741,10 +4741,10 @@
         </is>
       </c>
       <c r="C57">
-        <v>56.7513</v>
+        <v>55.7675</v>
       </c>
       <c r="D57">
-        <v>9.251099999999999</v>
+        <v>8.8598</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -4758,17 +4758,17 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t xml:space="preserve">stistrup </t>
+          <t>billund</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2019-10-31</t>
+          <t>2019-10-09</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>mbndk plant, 20000 pe capacity, influent wastewater, sampled 31-10-2019 to 21-11-2019</t>
+          <t>mbndkl plant, 70000 pe capacity, influent wastewater</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -4788,7 +4788,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2019-10-31</t>
+          <t>2019-10-09</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -4810,7 +4810,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>MFD10584</t>
+          <t>MFD10556</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4819,10 +4819,10 @@
         </is>
       </c>
       <c r="C58">
-        <v>57.2967</v>
+        <v>55.2466</v>
       </c>
       <c r="D58">
-        <v>10.5244</v>
+        <v>12.1091</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -4836,17 +4836,17 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>sæby</t>
+          <t>fakse</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2019-11-25</t>
+          <t>2019-10-23</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>mbndk plant, 92000 pe capacity, influent wastewater, sampled 25-11-2019 to 06-12-2019</t>
+          <t>mbndk plant, 130000 pe capacity, influent wastewater, sampled 23-10-2019 to 01-11-2019</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -4866,12 +4866,12 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>2019-11-25</t>
+          <t>2019-10-23</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -4888,7 +4888,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>MFD10585</t>
+          <t>MFD10556</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4897,10 +4897,10 @@
         </is>
       </c>
       <c r="C59">
-        <v>54.9262</v>
+        <v>55.2466</v>
       </c>
       <c r="D59">
-        <v>9.7738</v>
+        <v>12.1091</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -4914,17 +4914,17 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t xml:space="preserve">sønderborg </t>
+          <t>fakse</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2019-11-11</t>
+          <t>2019-10-23</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>mbndk plant, 94000 pe capacity, influent wastewater, sampled 11-11-2019 to 11-12-2019</t>
+          <t>mbndk plant, 130000 pe capacity, influent wastewater, sampled 23-10-2019 to 01-11-2019</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -4944,7 +4944,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2019-11-11</t>
+          <t>2019-10-23</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -4966,7 +4966,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>MFD10586</t>
+          <t>MFD10557</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4975,10 +4975,10 @@
         </is>
       </c>
       <c r="C60">
-        <v>54.9218</v>
+        <v>57.4253</v>
       </c>
       <c r="D60">
-        <v>8.854200000000001</v>
+        <v>10.5256</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -4992,17 +4992,17 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>tønder</t>
+          <t>frederikshavn</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>2019-11-25</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>mbndk plant, 27750 pe capacity, influent wastewater, sampled 07-11-2019 to 28-11-2019</t>
+          <t>mbndk plant, 135000 pe capacity, influent wastewater, sampled 25-11-2019 to 06-12-2019</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -5022,12 +5022,12 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>2019-11-07</t>
+          <t>2019-11-25</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -5044,7 +5044,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>MFD10587</t>
+          <t>MFD10557</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -5053,10 +5053,10 @@
         </is>
       </c>
       <c r="C61">
-        <v>54.893</v>
+        <v>57.4253</v>
       </c>
       <c r="D61">
-        <v>11.9388</v>
+        <v>10.5256</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -5070,17 +5070,17 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t xml:space="preserve">tårup </t>
+          <t>frederikshavn</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2019-11-13</t>
+          <t>2019-11-25</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>mbndk plant, 7000 pe capacity, influent wastewater, sampled 13-11-2019 to 05-12-2019</t>
+          <t>mbndk plant, 135000 pe capacity, influent wastewater, sampled 25-11-2019 to 06-12-2019</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -5100,7 +5100,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2019-11-13</t>
+          <t>2019-11-25</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -5122,7 +5122,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>MFD10588</t>
+          <t>MFD10558</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -5131,10 +5131,10 @@
         </is>
       </c>
       <c r="C62">
-        <v>55.4252</v>
+        <v>55.0834</v>
       </c>
       <c r="D62">
-        <v>9.276999999999999</v>
+        <v>10.1961</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -5148,17 +5148,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>vamdrup</t>
+          <t>fåborg</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2019-11-11</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>mbndk plant, 27500 pe capacity, influent wastewater, sampled 11-11-2019 to 26-11-2019</t>
+          <t>mbndk plant, 70000 pe capacity, influent wastewater, sampled 04-11-2019 to 04-12-2019</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -5178,12 +5178,12 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2019-11-11</t>
+          <t>2019-11-04</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -5200,7 +5200,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>MFD10589</t>
+          <t>MFD10558</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -5209,10 +5209,10 @@
         </is>
       </c>
       <c r="C63">
-        <v>55.704</v>
+        <v>55.0834</v>
       </c>
       <c r="D63">
-        <v>9.538</v>
+        <v>10.1961</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t xml:space="preserve">vejle </t>
+          <t>fåborg</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -5236,7 +5236,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>mbndk plant, 170000 pe capacity, influent wastewater, sampled 04-11-2019 to 27-11-2019</t>
+          <t>mbndk plant, 70000 pe capacity, influent wastewater, sampled 04-11-2019 to 04-12-2019</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -5278,7 +5278,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>MFD10590</t>
+          <t>MFD10559</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -5287,10 +5287,10 @@
         </is>
       </c>
       <c r="C64">
-        <v>54.6979</v>
+        <v>55.8475</v>
       </c>
       <c r="D64">
-        <v>11.9458</v>
+        <v>9.214499999999999</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -5304,17 +5304,17 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t xml:space="preserve">væggerløse </t>
+          <t xml:space="preserve">give </t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2019-11-13</t>
+          <t>2019-11-01</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>mbndk plant, 20000 pe capacity, influent wastewater, sampled 13-11-2019 to 05-11-2019</t>
+          <t>mbndk plant, 42000 pe capacity, influent wastewater, sampled 01-11-2019 to 14-11-2019</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -5334,12 +5334,12 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>2019-11-13</t>
+          <t>2019-11-01</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -5356,7 +5356,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>MFD10591</t>
+          <t>MFD10559</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -5365,10 +5365,10 @@
         </is>
       </c>
       <c r="C65">
-        <v>55.2701</v>
+        <v>55.8475</v>
       </c>
       <c r="D65">
-        <v>10.6626</v>
+        <v>9.214499999999999</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -5382,17 +5382,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>ørbæk</t>
+          <t xml:space="preserve">give </t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2019-11-12</t>
+          <t>2019-11-01</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>mbndk plant, 28000 pe capacity, influent wastewater, sampled 12-11-2019 to 06-12-2019</t>
+          <t>mbndk plant, 42000 pe capacity, influent wastewater, sampled 01-11-2019 to 14-11-2019</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>2019-11-12</t>
+          <t>2019-11-01</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -5434,7 +5434,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>MFD10592</t>
+          <t>MFD10560</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -5443,10 +5443,10 @@
         </is>
       </c>
       <c r="C66">
-        <v>56.8103</v>
+        <v>55.0416</v>
       </c>
       <c r="D66">
-        <v>8.8659</v>
+        <v>9.8446</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -5460,17 +5460,17 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>østre strand</t>
+          <t xml:space="preserve">himmark </t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2019-11-18</t>
+          <t>2019-11-11</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>mbndk plant, 125000 pe capacity, influent wastewater, sampled 18-11-2019 to 29-11-2019</t>
+          <t>mbndk plant, 15000 pe capacity, influent wastewater, sampled 11-11-2019 to 11-12-2019</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -5490,12 +5490,12 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>2019-11-18</t>
+          <t>2019-11-11</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -5512,7 +5512,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>MFD10593</t>
+          <t>MFD10560</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -5521,10 +5521,10 @@
         </is>
       </c>
       <c r="C67">
-        <v>57.0444</v>
+        <v>55.0416</v>
       </c>
       <c r="D67">
-        <v>10.0473</v>
+        <v>9.8446</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -5538,17 +5538,17 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>aalborg øst</t>
+          <t xml:space="preserve">himmark </t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2020-01-07</t>
+          <t>2019-11-11</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>mbndk plant, 96000 pe capacity, influent wastewater, sampled 07-01-2020 to 04-06-2020</t>
+          <t>mbndk plant, 15000 pe capacity, influent wastewater, sampled 11-11-2019 to 11-12-2019</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -5568,7 +5568,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>2020-01-07</t>
+          <t>2019-11-11</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -5590,7 +5590,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>MFD10594</t>
+          <t>MFD10561</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -5599,10 +5599,10 @@
         </is>
       </c>
       <c r="C68">
-        <v>57.6057</v>
+        <v>57.5774</v>
       </c>
       <c r="D68">
-        <v>10.4231</v>
+        <v>9.9938</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -5616,17 +5616,17 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>aalbæk</t>
+          <t>hirtshals</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2019-11-25</t>
+          <t>2019-11-09</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>mbndk plant, 7500 pe capacity, influent wastewater, sampled 25-11-2019 to 06-12-2019</t>
+          <t>mbndk plant, 133000 pe capacity, influent wastewater, sampled 09-11-2019 to 03-12-2019</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -5646,12 +5646,12 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>2019-11-25</t>
+          <t>2019-11-09</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -5668,76 +5668,5380 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
+          <t>MFD10561</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C69">
+        <v>57.5774</v>
+      </c>
+      <c r="D69">
+        <v>9.9938</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>hirtshals</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>2019-11-09</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>mbndk plant, 133000 pe capacity, influent wastewater, sampled 09-11-2019 to 03-12-2019</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>2019-11-09</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>MFD10562</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C70">
+        <v>54.8882</v>
+      </c>
+      <c r="D70">
+        <v>9.5756</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>huk</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>2019-11-12</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>mbndk plant, 52500 pe capacity, influent wastewater, sampled 12-11-2019 to 16-12-2019</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>2019-11-12</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>MFD10562</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C71">
+        <v>54.8882</v>
+      </c>
+      <c r="D71">
+        <v>9.5756</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>huk</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>2019-11-12</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>mbndk plant, 52500 pe capacity, influent wastewater, sampled 12-11-2019 to 16-12-2019</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>2019-11-12</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>MFD10563</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C72">
+        <v>56.2915</v>
+      </c>
+      <c r="D72">
+        <v>9.4457</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>kjellerup</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>2019-10-23</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>mbndkl plant, 25000 pe capacity, influent wastewater</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>2019-10-23</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>MFD10563</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C73">
+        <v>56.2915</v>
+      </c>
+      <c r="D73">
+        <v>9.4457</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>kjellerup</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>2019-10-23</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>mbndkl plant, 25000 pe capacity, influent wastewater</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>2019-10-23</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>MFD10564</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C74">
+        <v>54.8952</v>
+      </c>
+      <c r="D74">
+        <v>10.0591</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>hummelvig</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>2019-11-11</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>mbndk plant, 5000 pe capacity, influent wastewater, sampled 11-11-2019 to 11-12-2019</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>2019-11-11</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>MFD10564</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C75">
+        <v>54.8952</v>
+      </c>
+      <c r="D75">
+        <v>10.0591</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>hummelvig</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>2019-11-11</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>mbndk plant, 5000 pe capacity, influent wastewater, sampled 11-11-2019 to 11-12-2019</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>2019-11-11</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>MFD10565</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C76">
+        <v>54.8265</v>
+      </c>
+      <c r="D76">
+        <v>11.5441</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>hunseby strand</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>2019-10-29</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>mbndk plant, 40000 pe capacity, influent wastewater, sampled 29-10-2019 to 14-11-2019</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>2019-10-29</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>MFD10565</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C77">
+        <v>54.8265</v>
+      </c>
+      <c r="D77">
+        <v>11.5441</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>hunseby strand</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>2019-10-29</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>mbndk plant, 40000 pe capacity, influent wastewater, sampled 29-10-2019 to 14-11-2019</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>2019-10-29</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>MFD10566</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C78">
+        <v>56.1512</v>
+      </c>
+      <c r="D78">
+        <v>9.1416</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>ikast</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>2019-10-17</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>mbndk plant, 63000 pe capacity, influent wastewater, sampled 17-10-2019 to 21-11-2019</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>2019-10-17</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>MFD10566</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C79">
+        <v>56.1512</v>
+      </c>
+      <c r="D79">
+        <v>9.1416</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>ikast</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>2019-10-17</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>mbndk plant, 63000 pe capacity, influent wastewater, sampled 17-10-2019 to 21-11-2019</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>2019-10-17</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>MFD10567</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C80">
+        <v>56.3093</v>
+      </c>
+      <c r="D80">
+        <v>9.153700000000001</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">karup </t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>2019-11-07</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>mbndk plant, 15000 pe capacity, influent wastewater, sampled 07-11-2019 to 28-11-2019</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>2019-11-07</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>MFD10567</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C81">
+        <v>56.3093</v>
+      </c>
+      <c r="D81">
+        <v>9.153700000000001</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">karup </t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>2019-11-07</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>mbndk plant, 15000 pe capacity, influent wastewater, sampled 07-11-2019 to 28-11-2019</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>2019-11-07</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>MFD10568</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C82">
+        <v>55.4722</v>
+      </c>
+      <c r="D82">
+        <v>9.5748</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>kolding</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>2019-11-11</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>mbndk plant, 125000 pe capacity, influent wastewater, sampled 11-11-2019 to 25-11-2019</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>2019-11-11</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>MFD10568</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C83">
+        <v>55.4722</v>
+      </c>
+      <c r="D83">
+        <v>9.5748</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>kolding</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>2019-11-11</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>mbndk plant, 125000 pe capacity, influent wastewater, sampled 11-11-2019 to 25-11-2019</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>2019-11-11</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>MFD10569</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C84">
+        <v>55.3263</v>
+      </c>
+      <c r="D84">
+        <v>11.2035</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">korsør </t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>2020-11-01</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>mbndk plant, 50000 pe capacity, influent wastewater, sampled 01-11-2020 to 01-12-2020</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>2020-11-01</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>MFD10569</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C85">
+        <v>55.3263</v>
+      </c>
+      <c r="D85">
+        <v>11.2035</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">korsør </t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>2020-11-01</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>mbndk plant, 50000 pe capacity, influent wastewater, sampled 01-11-2020 to 01-12-2020</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>2020-11-01</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>MFD10570</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C86">
+        <v>56.9702</v>
+      </c>
+      <c r="D86">
+        <v>9.270099999999999</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>løgstør</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>2019-10-30</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>mbndkl plant, 73000 pe capacity, influent wastewater, sampled 30-10-2019 to 20-11-2019</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>2019-10-30</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>MFD10570</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C87">
+        <v>56.9702</v>
+      </c>
+      <c r="D87">
+        <v>9.270099999999999</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>løgstør</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>2019-10-30</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>mbndkl plant, 73000 pe capacity, influent wastewater, sampled 30-10-2019 to 20-11-2019</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>2019-10-30</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>MFD10571</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C88">
+        <v>54.8667</v>
+      </c>
+      <c r="D88">
+        <v>10.5049</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>marstal</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>2019-10-31</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>mbndk plant, 7500 pe capacity, influent wastewater</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>2019-10-31</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>MFD10571</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C89">
+        <v>54.8667</v>
+      </c>
+      <c r="D89">
+        <v>10.5049</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>marstal</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>2019-10-31</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>mbndk plant, 7500 pe capacity, influent wastewater</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>2019-10-31</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>MFD10572</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C90">
+        <v>56.7412</v>
+      </c>
+      <c r="D90">
+        <v>10.1158</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>mariagerfjord</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>2019-10-09</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>mbndk plant, 75000 pe capacity, influent wastewater, sampled 24-09-2019 to 27-10-2019</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>2019-10-09</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>MFD10572</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C91">
+        <v>56.7412</v>
+      </c>
+      <c r="D91">
+        <v>10.1158</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>mariagerfjord</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>2019-10-09</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>mbndk plant, 75000 pe capacity, influent wastewater, sampled 24-09-2019 to 27-10-2019</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>2019-10-09</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>MFD10573</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C92">
+        <v>54.7738</v>
+      </c>
+      <c r="D92">
+        <v>11.8813</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>nykøbing f. (nord)</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>2019-11-13</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>mbndk plant, 57000 pe capacity, influent wastewater, sampled 13-11-2019 to 05-11-2019</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>2019-11-13</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>MFD10573</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C93">
+        <v>54.7738</v>
+      </c>
+      <c r="D93">
+        <v>11.8813</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>nykøbing f. (nord)</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>2019-11-13</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>mbndk plant, 57000 pe capacity, influent wastewater, sampled 13-11-2019 to 05-11-2019</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>2019-11-13</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>MFD10574</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C94">
+        <v>55.9867</v>
+      </c>
+      <c r="D94">
+        <v>10.1586</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>odder saksild bugt</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>2019-11-06</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>mbndkf plant, 25000 pe capacity, influent wastewater, sampled 06-11-2019 to 03-12-2019</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>2019-11-06</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>MFD10574</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C95">
+        <v>55.9867</v>
+      </c>
+      <c r="D95">
+        <v>10.1586</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>odder saksild bugt</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>2019-11-06</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>mbndkf plant, 25000 pe capacity, influent wastewater, sampled 06-11-2019 to 03-12-2019</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>2019-11-06</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>MFD10575</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C96">
+        <v>56.0913</v>
+      </c>
+      <c r="D96">
+        <v>8.24</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>ringkøbing</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>2019-10-17</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>mbndk plant, 42500 pe capacity, influent wastewater, sampled 17-10-2019 to 16-12-2019</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>2019-10-17</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>MFD10575</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C97">
+        <v>56.0913</v>
+      </c>
+      <c r="D97">
+        <v>8.24</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>ringkøbing</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>2019-10-17</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>mbndk plant, 42500 pe capacity, influent wastewater, sampled 17-10-2019 to 16-12-2019</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>2019-10-17</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>MFD10576</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C98">
+        <v>55.3134</v>
+      </c>
+      <c r="D98">
+        <v>10.4998</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sdr. nærå </t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>2019-11-04</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>mbndkl plant, 12000 pe capacity, influent wastewater, sampled 04-11-2019 to 05-12-2019</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>2019-11-04</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>MFD10576</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C99">
+        <v>55.3134</v>
+      </c>
+      <c r="D99">
+        <v>10.4998</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sdr. nærå </t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>2019-11-04</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>mbndkl plant, 12000 pe capacity, influent wastewater, sampled 04-11-2019 to 05-12-2019</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>2019-11-04</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>MFD10577</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C100">
+        <v>57.7379</v>
+      </c>
+      <c r="D100">
+        <v>10.5688</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>skagen</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>2019-11-25</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>mbndk plant, 194000 pe capacity, influent wastewater, sampled 25-11-2019 to 06-12-2019</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>2019-11-25</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>MFD10577</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C101">
+        <v>57.7379</v>
+      </c>
+      <c r="D101">
+        <v>10.5688</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>skagen</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>2019-11-25</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>mbndk plant, 194000 pe capacity, influent wastewater, sampled 25-11-2019 to 06-12-2019</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>2019-11-25</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>MFD10578</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C102">
+        <v>55.2464</v>
+      </c>
+      <c r="D102">
+        <v>11.2984</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>skælskør</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>2020-10-30</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>mbndk plant, 35000 pe capacity, influent wastewater, sampled 30-10-2020 to 01-12-2020</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>2020-10-30</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>MFD10578</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C103">
+        <v>55.2464</v>
+      </c>
+      <c r="D103">
+        <v>11.2984</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>skælskør</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>2020-10-30</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>mbndk plant, 35000 pe capacity, influent wastewater, sampled 30-10-2020 to 01-12-2020</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>2020-10-30</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>MFD10579</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C104">
+        <v>56.1752</v>
+      </c>
+      <c r="D104">
+        <v>9.583299999999999</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>søholt</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>2019-10-23</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>mbndks plant, 105000 pe capacity, influent wastewater</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>2019-10-23</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>MFD10579</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C105">
+        <v>56.1752</v>
+      </c>
+      <c r="D105">
+        <v>9.583299999999999</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>søholt</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>2019-10-23</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>mbndks plant, 105000 pe capacity, influent wastewater</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>2019-10-23</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>MFD10580</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C106">
+        <v>56.1017</v>
+      </c>
+      <c r="D106">
+        <v>9.554600000000001</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>them</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>2019-10-23</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>mbndk plant, 12500 pe capacity, influent wastewater</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>2019-10-23</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>MFD10580</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C107">
+        <v>56.1017</v>
+      </c>
+      <c r="D107">
+        <v>9.554600000000001</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>them</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>2019-10-23</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>mbndk plant, 12500 pe capacity, influent wastewater</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>2019-10-23</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>MFD10581</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C108">
+        <v>55.1491</v>
+      </c>
+      <c r="D108">
+        <v>8.749499999999999</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>skærbæk</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>2019-11-07</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>mbnk plant, 15000 pe capacity, influent wastewater, sampled 07-11-2019 to 03-12-2019</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>2019-11-07</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>MFD10581</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C109">
+        <v>55.1491</v>
+      </c>
+      <c r="D109">
+        <v>8.749499999999999</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>skærbæk</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>2019-11-07</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>mbnk plant, 15000 pe capacity, influent wastewater, sampled 07-11-2019 to 03-12-2019</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>2019-11-07</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>MFD10582</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C110">
+        <v>55.4163</v>
+      </c>
+      <c r="D110">
+        <v>11.3409</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>slagelse</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>2020-10-31</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>mbndkl plant, 115000 pe capacity, influent wastewater, sampled 31-10-2020 to 01-12-2020</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>2020-10-31</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>MFD10582</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C111">
+        <v>55.4163</v>
+      </c>
+      <c r="D111">
+        <v>11.3409</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>slagelse</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>2020-10-31</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>mbndkl plant, 115000 pe capacity, influent wastewater, sampled 31-10-2020 to 01-12-2020</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>2020-10-31</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>MFD10583</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C112">
+        <v>56.7513</v>
+      </c>
+      <c r="D112">
+        <v>9.251099999999999</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">stistrup </t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>2019-10-31</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>mbndk plant, 20000 pe capacity, influent wastewater, sampled 31-10-2019 to 21-11-2019</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>2019-10-31</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>MFD10583</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C113">
+        <v>56.7513</v>
+      </c>
+      <c r="D113">
+        <v>9.251099999999999</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">stistrup </t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>2019-10-31</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>mbndk plant, 20000 pe capacity, influent wastewater, sampled 31-10-2019 to 21-11-2019</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>2019-10-31</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>MFD10584</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C114">
+        <v>57.2967</v>
+      </c>
+      <c r="D114">
+        <v>10.5244</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>sæby</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>2019-11-25</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>mbndk plant, 92000 pe capacity, influent wastewater, sampled 25-11-2019 to 06-12-2019</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>2019-11-25</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>MFD10584</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C115">
+        <v>57.2967</v>
+      </c>
+      <c r="D115">
+        <v>10.5244</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>sæby</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>2019-11-25</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>mbndk plant, 92000 pe capacity, influent wastewater, sampled 25-11-2019 to 06-12-2019</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>2019-11-25</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>MFD10585</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C116">
+        <v>54.9262</v>
+      </c>
+      <c r="D116">
+        <v>9.7738</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sønderborg </t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>2019-11-11</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>mbndk plant, 94000 pe capacity, influent wastewater, sampled 11-11-2019 to 11-12-2019</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>2019-11-11</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>MFD10585</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C117">
+        <v>54.9262</v>
+      </c>
+      <c r="D117">
+        <v>9.7738</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sønderborg </t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>2019-11-11</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>mbndk plant, 94000 pe capacity, influent wastewater, sampled 11-11-2019 to 11-12-2019</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>2019-11-11</t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>MFD10586</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C118">
+        <v>54.9218</v>
+      </c>
+      <c r="D118">
+        <v>8.854200000000001</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>tønder</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>2019-11-07</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>mbndk plant, 27750 pe capacity, influent wastewater, sampled 07-11-2019 to 28-11-2019</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>2019-11-07</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>MFD10586</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C119">
+        <v>54.9218</v>
+      </c>
+      <c r="D119">
+        <v>8.854200000000001</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>tønder</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>2019-11-07</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>mbndk plant, 27750 pe capacity, influent wastewater, sampled 07-11-2019 to 28-11-2019</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>2019-11-07</t>
+        </is>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>MFD10587</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C120">
+        <v>54.893</v>
+      </c>
+      <c r="D120">
+        <v>11.9388</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">tårup </t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>2019-11-13</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>mbndk plant, 7000 pe capacity, influent wastewater, sampled 13-11-2019 to 05-12-2019</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>2019-11-13</t>
+        </is>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>MFD10587</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C121">
+        <v>54.893</v>
+      </c>
+      <c r="D121">
+        <v>11.9388</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">tårup </t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>2019-11-13</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>mbndk plant, 7000 pe capacity, influent wastewater, sampled 13-11-2019 to 05-12-2019</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>2019-11-13</t>
+        </is>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>MFD10588</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C122">
+        <v>55.4252</v>
+      </c>
+      <c r="D122">
+        <v>9.276999999999999</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>vamdrup</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>2019-11-11</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>mbndk plant, 27500 pe capacity, influent wastewater, sampled 11-11-2019 to 26-11-2019</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>2019-11-11</t>
+        </is>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>MFD10588</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C123">
+        <v>55.4252</v>
+      </c>
+      <c r="D123">
+        <v>9.276999999999999</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>vamdrup</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>2019-11-11</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>mbndk plant, 27500 pe capacity, influent wastewater, sampled 11-11-2019 to 26-11-2019</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>2019-11-11</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>MFD10589</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C124">
+        <v>55.704</v>
+      </c>
+      <c r="D124">
+        <v>9.538</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">vejle </t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>2019-11-04</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>mbndk plant, 170000 pe capacity, influent wastewater, sampled 04-11-2019 to 27-11-2019</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>2019-11-04</t>
+        </is>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>MFD10589</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C125">
+        <v>55.704</v>
+      </c>
+      <c r="D125">
+        <v>9.538</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">vejle </t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>2019-11-04</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>mbndk plant, 170000 pe capacity, influent wastewater, sampled 04-11-2019 to 27-11-2019</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>2019-11-04</t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>MFD10590</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C126">
+        <v>54.6979</v>
+      </c>
+      <c r="D126">
+        <v>11.9458</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">væggerløse </t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>2019-11-13</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>mbndk plant, 20000 pe capacity, influent wastewater, sampled 13-11-2019 to 05-11-2019</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>2019-11-13</t>
+        </is>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>MFD10590</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C127">
+        <v>54.6979</v>
+      </c>
+      <c r="D127">
+        <v>11.9458</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">væggerløse </t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>2019-11-13</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>mbndk plant, 20000 pe capacity, influent wastewater, sampled 13-11-2019 to 05-11-2019</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>2019-11-13</t>
+        </is>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>MFD10591</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C128">
+        <v>55.2701</v>
+      </c>
+      <c r="D128">
+        <v>10.6626</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>ørbæk</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>2019-11-12</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>mbndk plant, 28000 pe capacity, influent wastewater, sampled 12-11-2019 to 06-12-2019</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>2019-11-12</t>
+        </is>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>MFD10591</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C129">
+        <v>55.2701</v>
+      </c>
+      <c r="D129">
+        <v>10.6626</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>ørbæk</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>2019-11-12</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>mbndk plant, 28000 pe capacity, influent wastewater, sampled 12-11-2019 to 06-12-2019</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>2019-11-12</t>
+        </is>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>MFD10592</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C130">
+        <v>56.8103</v>
+      </c>
+      <c r="D130">
+        <v>8.8659</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>østre strand</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>2019-11-18</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>mbndk plant, 125000 pe capacity, influent wastewater, sampled 18-11-2019 to 29-11-2019</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>2019-11-18</t>
+        </is>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>MFD10592</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C131">
+        <v>56.8103</v>
+      </c>
+      <c r="D131">
+        <v>8.8659</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>østre strand</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>2019-11-18</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>mbndk plant, 125000 pe capacity, influent wastewater, sampled 18-11-2019 to 29-11-2019</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>2019-11-18</t>
+        </is>
+      </c>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>MFD10593</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C132">
+        <v>57.0444</v>
+      </c>
+      <c r="D132">
+        <v>10.0473</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>aalborg øst</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>2020-01-07</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>mbndk plant, 96000 pe capacity, influent wastewater, sampled 07-01-2020 to 04-06-2020</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>2020-01-07</t>
+        </is>
+      </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>MFD10593</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C133">
+        <v>57.0444</v>
+      </c>
+      <c r="D133">
+        <v>10.0473</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>aalborg øst</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>2020-01-07</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>mbndk plant, 96000 pe capacity, influent wastewater, sampled 07-01-2020 to 04-06-2020</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>2020-01-07</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>MFD10594</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C134">
+        <v>57.6057</v>
+      </c>
+      <c r="D134">
+        <v>10.4231</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>aalbæk</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>2019-11-25</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>mbndk plant, 7500 pe capacity, influent wastewater, sampled 25-11-2019 to 06-12-2019</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>2019-11-25</t>
+        </is>
+      </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>MFD10594</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C135">
+        <v>57.6057</v>
+      </c>
+      <c r="D135">
+        <v>10.4231</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>aalbæk</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>2019-11-25</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>mbndk plant, 7500 pe capacity, influent wastewater, sampled 25-11-2019 to 06-12-2019</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>2019-11-25</t>
+        </is>
+      </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
           <t>MFD10595</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>water</t>
-        </is>
-      </c>
-      <c r="C69">
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C136">
         <v>56.8105</v>
       </c>
-      <c r="D69">
+      <c r="D136">
         <v>9.548</v>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>wastewater</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>3210</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
         <is>
           <t>aars</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="H136" t="inlineStr">
         <is>
           <t>2019-10-28</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr">
+      <c r="I136" t="inlineStr">
         <is>
           <t>mbndkl plant, 105000 pe capacity, influent wastewater, sampled 28-10-2019 to 21-11-2019</t>
         </is>
       </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>P13_1</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>Water</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M136" t="inlineStr">
         <is>
           <t>2019-10-28</t>
         </is>
       </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P69" t="inlineStr">
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>Influent</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>MFD10595</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C137">
+        <v>56.8105</v>
+      </c>
+      <c r="D137">
+        <v>9.548</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>wastewater</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>aars</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>2019-10-28</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>mbndkl plant, 105000 pe capacity, influent wastewater, sampled 28-10-2019 to 21-11-2019</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>P13_1</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>2019-10-28</t>
+        </is>
+      </c>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>Wastewater</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>

--- a/analysis/metadata/P13_1/P13_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P13_1/P13_1_minimal_metadata.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -503,15 +503,10 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -541,7 +536,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -581,15 +576,10 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -619,7 +609,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -659,15 +649,10 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -697,7 +682,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -737,15 +722,10 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -775,7 +755,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -815,15 +795,10 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -853,7 +828,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -893,15 +868,10 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -931,7 +901,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -971,15 +941,10 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -1009,7 +974,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1049,15 +1014,10 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -1087,7 +1047,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1127,15 +1087,10 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -1165,7 +1120,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1205,15 +1160,10 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -1243,7 +1193,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1283,15 +1233,10 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -1321,7 +1266,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1361,15 +1306,10 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -1399,7 +1339,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1439,15 +1379,10 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -1477,7 +1412,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1517,15 +1452,10 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -1555,7 +1485,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1595,15 +1525,10 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -1633,7 +1558,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1673,15 +1598,10 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -1711,7 +1631,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1751,15 +1671,10 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -1789,7 +1704,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1829,15 +1744,10 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -1867,7 +1777,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1907,15 +1817,10 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -1945,7 +1850,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1985,15 +1890,10 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -2023,7 +1923,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -2063,15 +1963,10 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -2101,7 +1996,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2141,15 +2036,10 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -2179,7 +2069,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2219,15 +2109,10 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -2257,7 +2142,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2297,15 +2182,10 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -2335,7 +2215,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2375,15 +2255,10 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -2413,7 +2288,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2453,15 +2328,10 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -2491,7 +2361,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2531,15 +2401,10 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -2569,7 +2434,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2609,15 +2474,10 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -2647,7 +2507,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2687,15 +2547,10 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -2725,7 +2580,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2765,15 +2620,10 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -2803,7 +2653,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2843,15 +2693,10 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -2881,7 +2726,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2921,15 +2766,10 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -2959,7 +2799,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2999,15 +2839,10 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -3037,7 +2872,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -3077,15 +2912,10 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -3115,7 +2945,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -3155,15 +2985,10 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -3193,7 +3018,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -3233,15 +3058,10 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -3271,7 +3091,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -3311,15 +3131,10 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -3349,7 +3164,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -3389,15 +3204,10 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -3427,7 +3237,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -3467,15 +3277,10 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -3505,7 +3310,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -3545,15 +3350,10 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -3583,7 +3383,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -3623,15 +3423,10 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -3661,7 +3456,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3701,15 +3496,10 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -3739,7 +3529,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -3779,15 +3569,10 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -3817,7 +3602,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -3857,15 +3642,10 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -3895,7 +3675,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -3935,15 +3715,10 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -3973,7 +3748,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -4013,15 +3788,10 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -4051,7 +3821,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -4091,15 +3861,10 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -4129,7 +3894,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -4169,15 +3934,10 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -4207,7 +3967,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -4247,15 +4007,10 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -4285,7 +4040,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -4325,15 +4080,10 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -4363,7 +4113,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -4403,15 +4153,10 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P52" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -4441,7 +4186,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -4481,15 +4226,10 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P53" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -4519,7 +4259,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -4559,15 +4299,10 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P54" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -4597,7 +4332,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -4637,15 +4372,10 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P55" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -4675,7 +4405,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -4715,15 +4445,10 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P56" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -4753,7 +4478,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -4793,15 +4518,10 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P57" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -4831,7 +4551,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -4871,15 +4591,10 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P58" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -4909,7 +4624,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -4949,15 +4664,10 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P59" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -4987,7 +4697,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -5027,15 +4737,10 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P60" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -5065,7 +4770,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -5105,15 +4810,10 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P61" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -5143,7 +4843,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -5183,15 +4883,10 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P62" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -5221,7 +4916,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -5261,15 +4956,10 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P63" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -5299,7 +4989,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -5339,15 +5029,10 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P64" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -5377,7 +5062,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -5417,15 +5102,10 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P65" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -5455,7 +5135,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -5495,15 +5175,10 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P66" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -5533,7 +5208,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -5573,15 +5248,10 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P67" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -5611,7 +5281,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -5651,15 +5321,10 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P68" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
@@ -5689,7 +5354,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -5729,15 +5394,10 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Wastewater</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
-        <is>
-          <t>Wastewater</t>
-        </is>
-      </c>
-      <c r="P69" t="inlineStr">
         <is>
           <t>Influent</t>
         </is>
